--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-masking-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="1108">
   <si>
     <t>anchor score</t>
   </si>
@@ -547,460 +547,460 @@
     <t>grocery</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>another</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>trends</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>ag</t>
+  </si>
+  <si>
+    <t>went</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>sales</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>another</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>trends</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>ag</t>
-  </si>
-  <si>
-    <t>went</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>kids</t>
   </si>
   <si>
     <t>safe</t>
@@ -3706,7 +3706,7 @@
         <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3764,7 +3764,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02579518862945738</v>
+        <v>0.02609855191636752</v>
       </c>
       <c r="C3">
         <v>195</v>
@@ -3785,16 +3785,16 @@
         <v>97</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K3">
-        <v>0.004840657066782822</v>
+        <v>0.007083428521621181</v>
       </c>
       <c r="L3">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="M3">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3814,7 +3814,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02239649562733319</v>
+        <v>0.02265988872076527</v>
       </c>
       <c r="C4">
         <v>147</v>
@@ -3835,28 +3835,28 @@
         <v>369</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="K4">
-        <v>0.004009663749987505</v>
+        <v>0.006363689261256878</v>
       </c>
       <c r="L4">
-        <v>630</v>
+        <v>159</v>
       </c>
       <c r="M4">
-        <v>661</v>
+        <v>159</v>
       </c>
       <c r="N4">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2446</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3864,7 +3864,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01028495152857653</v>
+        <v>0.01040590729076303</v>
       </c>
       <c r="C5">
         <v>31</v>
@@ -3885,28 +3885,28 @@
         <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>87</v>
+        <v>329</v>
       </c>
       <c r="K5">
-        <v>0.003914265875605448</v>
+        <v>0.004840657066782822</v>
       </c>
       <c r="L5">
-        <v>419</v>
+        <v>92</v>
       </c>
       <c r="M5">
-        <v>433</v>
+        <v>92</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2768</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3914,7 +3914,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.008664285266938869</v>
+        <v>0.008766181248203535</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -3935,28 +3935,28 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>179</v>
+        <v>73</v>
       </c>
       <c r="K6">
-        <v>0.003798844483629453</v>
+        <v>0.004009663749987505</v>
       </c>
       <c r="L6">
-        <v>215</v>
+        <v>630</v>
       </c>
       <c r="M6">
-        <v>218</v>
+        <v>661</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P6" t="b">
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>165</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3964,7 +3964,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.008465079667038453</v>
+        <v>0.008564632898791776</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -3985,28 +3985,28 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>330</v>
+        <v>87</v>
       </c>
       <c r="K7">
-        <v>0.003604088865664637</v>
+        <v>0.003914265875605448</v>
       </c>
       <c r="L7">
-        <v>51</v>
+        <v>419</v>
       </c>
       <c r="M7">
-        <v>51</v>
+        <v>433</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007616331932036806</v>
+        <v>0.007705903499909073</v>
       </c>
       <c r="C8">
         <v>17</v>
@@ -4035,28 +4035,28 @@
         <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>331</v>
+        <v>178</v>
       </c>
       <c r="K8">
-        <v>0.003385451992363077</v>
+        <v>0.003798844483629453</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>218</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>185</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4064,7 +4064,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.006398998750666627</v>
+        <v>0.006474253920218647</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -4085,16 +4085,16 @@
         <v>39</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K9">
-        <v>0.003309364703321605</v>
+        <v>0.003604088865664637</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>122</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4114,7 +4114,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006398998750666627</v>
+        <v>0.006474253920218647</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -4135,16 +4135,16 @@
         <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K10">
-        <v>0.0032706573518314</v>
+        <v>0.003385451992363077</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>73</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4164,7 +4164,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006398998750666627</v>
+        <v>0.006474253920218647</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -4185,28 +4185,28 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>195</v>
+        <v>332</v>
       </c>
       <c r="K11">
-        <v>0.003055630150939867</v>
+        <v>0.003309364703321605</v>
       </c>
       <c r="L11">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4214,7 +4214,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006398998750666627</v>
+        <v>0.006474253920218647</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -4235,28 +4235,28 @@
         <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>176</v>
+        <v>333</v>
       </c>
       <c r="K12">
-        <v>0.002953623809690437</v>
+        <v>0.0032706573518314</v>
       </c>
       <c r="L12">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="N12">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>685</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4264,7 +4264,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006398998750666627</v>
+        <v>0.006474253920218647</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -4285,28 +4285,28 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>334</v>
+        <v>193</v>
       </c>
       <c r="K13">
-        <v>0.002942726236174863</v>
+        <v>0.003055630150939867</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4314,7 +4314,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.00612657486638717</v>
+        <v>0.006198626205715073</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -4335,28 +4335,28 @@
         <v>69</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K14">
-        <v>0.002889095261256244</v>
+        <v>0.002953623809690437</v>
       </c>
       <c r="L14">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="M14">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P14" t="b">
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>353</v>
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4364,7 +4364,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.00612657486638717</v>
+        <v>0.006198626205715073</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -4385,16 +4385,16 @@
         <v>14</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K15">
-        <v>0.002809902493248748</v>
+        <v>0.002942726236174863</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4414,7 +4414,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.00612657486638717</v>
+        <v>0.006198626205715073</v>
       </c>
       <c r="C16">
         <v>11</v>
@@ -4435,28 +4435,28 @@
         <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>336</v>
+        <v>185</v>
       </c>
       <c r="K16">
-        <v>0.002809902493248748</v>
+        <v>0.002889095261256244</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4464,7 +4464,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00584145993531248</v>
+        <v>0.005910158191866676</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -4485,7 +4485,7 @@
         <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K17">
         <v>0.002809902493248748</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>275</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4514,7 +4514,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00584145993531248</v>
+        <v>0.005910158191866676</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -4535,16 +4535,16 @@
         <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K18">
-        <v>0.002622359837161383</v>
+        <v>0.002809902493248748</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4564,7 +4564,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00584145993531248</v>
+        <v>0.005910158191866676</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -4585,28 +4585,28 @@
         <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>113</v>
+        <v>337</v>
       </c>
       <c r="K19">
-        <v>0.002564017621170134</v>
+        <v>0.002809902493248748</v>
       </c>
       <c r="L19">
-        <v>407</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>437</v>
+        <v>31</v>
       </c>
       <c r="N19">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1706</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4614,7 +4614,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005541695476862184</v>
+        <v>0.005606868365460339</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -4635,16 +4635,16 @@
         <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K20">
-        <v>0.002523366929828646</v>
+        <v>0.002622359837161383</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4656,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4664,7 +4664,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005541695476862184</v>
+        <v>0.005606868365460339</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -4685,28 +4685,28 @@
         <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>340</v>
+        <v>113</v>
       </c>
       <c r="K21">
-        <v>0.002367128003097109</v>
+        <v>0.002564017621170134</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>407</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>437</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>79</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4714,7 +4714,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005541695476862184</v>
+        <v>0.005606868365460339</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -4735,28 +4735,28 @@
         <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K22">
-        <v>0.002367128003097109</v>
+        <v>0.002523366929828646</v>
       </c>
       <c r="L22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>25</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>22</v>
-      </c>
-      <c r="M22">
-        <v>22</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4764,7 +4764,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005541695476862184</v>
+        <v>0.005606868365460339</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -4785,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K23">
         <v>0.002367128003097109</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4814,7 +4814,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005541695476862184</v>
+        <v>0.005606868365460339</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -4835,28 +4835,28 @@
         <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>186</v>
+        <v>341</v>
       </c>
       <c r="K24">
-        <v>0.002366178630148751</v>
+        <v>0.002367128003097109</v>
       </c>
       <c r="L24">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="N24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4864,7 +4864,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005224760601280092</v>
+        <v>0.005286206189916453</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4885,16 +4885,16 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K25">
-        <v>0.002312703992417618</v>
+        <v>0.002367128003097109</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4914,7 +4914,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005224760601280092</v>
+        <v>0.005286206189916453</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -4935,28 +4935,28 @@
         <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>344</v>
+        <v>184</v>
       </c>
       <c r="K26">
-        <v>0.002312703992417618</v>
+        <v>0.002366178630148751</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>77</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4964,7 +4964,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005224760601280092</v>
+        <v>0.005286206189916453</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4985,7 +4985,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K27">
         <v>0.002312703992417618</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5014,7 +5014,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005224760601280092</v>
+        <v>0.005286206189916453</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -5035,28 +5035,28 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>115</v>
+        <v>344</v>
       </c>
       <c r="K28">
-        <v>0.002297393512372733</v>
+        <v>0.002312703992417618</v>
       </c>
       <c r="L28">
-        <v>205</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>215</v>
+        <v>21</v>
       </c>
       <c r="N28">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>679</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -5064,7 +5064,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.004887316024476279</v>
+        <v>0.004944793109627757</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -5085,28 +5085,28 @@
         <v>16</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>184</v>
+        <v>345</v>
       </c>
       <c r="K29">
-        <v>0.00222454787249967</v>
+        <v>0.002312703992417618</v>
       </c>
       <c r="L29">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="N29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O29">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>435</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5114,7 +5114,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.004887316024476279</v>
+        <v>0.004944793109627757</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -5135,28 +5135,28 @@
         <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>346</v>
+        <v>115</v>
       </c>
       <c r="K30">
-        <v>0.002199820288919112</v>
+        <v>0.002297393512372733</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>215</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5164,7 +5164,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.004887316024476279</v>
+        <v>0.004944793109627757</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -5185,28 +5185,28 @@
         <v>3</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>347</v>
+        <v>182</v>
       </c>
       <c r="K31">
-        <v>0.002199820288919112</v>
+        <v>0.00222454787249967</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>153</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5214,7 +5214,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004524775409400618</v>
+        <v>0.004577988850110194</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K32">
         <v>0.002199820288919112</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>94</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5264,7 +5264,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004524775409400618</v>
+        <v>0.004577988850110194</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -5285,7 +5285,7 @@
         <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K33">
         <v>0.002199820288919112</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>105</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5314,7 +5314,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004524775409400618</v>
+        <v>0.004577988850110194</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -5335,28 +5335,28 @@
         <v>31</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>192</v>
+        <v>348</v>
       </c>
       <c r="K34">
-        <v>0.002182175005273233</v>
+        <v>0.002199820288919112</v>
       </c>
       <c r="L34">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="N34">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5364,7 +5364,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004524775409400618</v>
+        <v>0.004577988850110194</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -5385,16 +5385,16 @@
         <v>6</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K35">
-        <v>0.002141147841004457</v>
+        <v>0.002199820288919112</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5414,7 +5414,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004524775409400618</v>
+        <v>0.004577988850110194</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -5435,28 +5435,28 @@
         <v>246</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="K36">
-        <v>0.002141147841004457</v>
+        <v>0.002182175005273233</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5464,7 +5464,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004524775409400618</v>
+        <v>0.004577988850110194</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -5485,7 +5485,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K37">
         <v>0.002141147841004457</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5514,7 +5514,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004524775409400618</v>
+        <v>0.004577988850110194</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -5535,7 +5535,7 @@
         <v>7</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K38">
         <v>0.002141147841004457</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>91</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5564,7 +5564,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004524775409400618</v>
+        <v>0.004577988850110194</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -5585,7 +5585,7 @@
         <v>16</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K39">
         <v>0.002141147841004457</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>282</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5614,7 +5614,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004524775409400618</v>
+        <v>0.004577988850110194</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -5635,16 +5635,16 @@
         <v>13</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K40">
-        <v>0.002080821676774811</v>
+        <v>0.002141147841004457</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5664,7 +5664,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004524775409400618</v>
+        <v>0.004577988850110194</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -5685,28 +5685,28 @@
         <v>34</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>178</v>
+        <v>354</v>
       </c>
       <c r="K41">
-        <v>0.002054851225892974</v>
+        <v>0.002141147841004457</v>
       </c>
       <c r="L41">
-        <v>164</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>123</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5714,7 +5714,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004524775409400618</v>
+        <v>0.004577988850110194</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5735,28 +5735,28 @@
         <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>189</v>
+        <v>355</v>
       </c>
       <c r="K42">
-        <v>0.002052907577644541</v>
+        <v>0.002080821676774811</v>
       </c>
       <c r="L42">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="N42">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>14</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5764,7 +5764,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -5785,28 +5785,28 @@
         <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>356</v>
+        <v>177</v>
       </c>
       <c r="K43">
-        <v>0.002018693543862917</v>
+        <v>0.002054851225892974</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>112</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5814,7 +5814,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5835,28 +5835,28 @@
         <v>25</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K44">
-        <v>0.001998861055993223</v>
+        <v>0.002052907577644541</v>
       </c>
       <c r="L44">
-        <v>197</v>
+        <v>103</v>
       </c>
       <c r="M44">
-        <v>209</v>
+        <v>106</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5864,7 +5864,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5885,28 +5885,28 @@
         <v>161</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>180</v>
+        <v>356</v>
       </c>
       <c r="K45">
-        <v>0.001991485371796133</v>
+        <v>0.002018693543862917</v>
       </c>
       <c r="L45">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="M45">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="N45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>72</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5914,7 +5914,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5964,7 +5964,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -6014,7 +6014,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -6035,7 +6035,7 @@
         <v>6</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K48">
         <v>0.001952482892004668</v>
@@ -6064,7 +6064,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -6114,7 +6114,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -6135,7 +6135,7 @@
         <v>14</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K50">
         <v>0.001878610381211665</v>
@@ -6164,7 +6164,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -6214,7 +6214,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -6264,7 +6264,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -6314,7 +6314,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -6364,7 +6364,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -6414,7 +6414,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -6464,7 +6464,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -6485,7 +6485,7 @@
         <v>2</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K57">
         <v>0.001726974611513696</v>
@@ -6514,7 +6514,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -6564,7 +6564,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004130535932288986</v>
+        <v>0.00417911293535415</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -6614,7 +6614,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003694463651241456</v>
+        <v>0.003737912243640226</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6664,7 +6664,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003694463651241456</v>
+        <v>0.003737912243640226</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6714,7 +6714,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003694463651241456</v>
+        <v>0.003737912243640226</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6764,7 +6764,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003694463651241456</v>
+        <v>0.003737912243640226</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6814,7 +6814,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003694463651241456</v>
+        <v>0.003737912243640226</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6864,7 +6864,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003694463651241456</v>
+        <v>0.003737912243640226</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6885,7 +6885,7 @@
         <v>15</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K65">
         <v>0.001646218252828143</v>
@@ -6914,7 +6914,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003694463651241456</v>
+        <v>0.003737912243640226</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -6964,7 +6964,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003694463651241456</v>
+        <v>0.003737912243640226</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -7014,7 +7014,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003255588652448965</v>
+        <v>0.0032938758729311</v>
       </c>
       <c r="C68">
         <v>31</v>
@@ -7064,7 +7064,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -7114,7 +7114,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -7164,7 +7164,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -7214,7 +7214,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7264,7 +7264,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7314,7 +7314,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7364,7 +7364,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7385,7 +7385,7 @@
         <v>3</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K75">
         <v>0.001572992885718623</v>
@@ -7414,7 +7414,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7464,7 +7464,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7514,7 +7514,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7564,7 +7564,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -7614,7 +7614,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -7664,7 +7664,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003199499375333314</v>
+        <v>0.003237126960109324</v>
       </c>
       <c r="C81">
         <v>3</v>
@@ -7714,7 +7714,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002618896454135316</v>
+        <v>0.002649695881416749</v>
       </c>
       <c r="C82">
         <v>14</v>
@@ -7764,7 +7764,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7814,7 +7814,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7864,7 +7864,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7914,7 +7914,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7964,7 +7964,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7985,7 +7985,7 @@
         <v>5</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K87">
         <v>0.001500762466150367</v>
@@ -8014,7 +8014,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -8035,7 +8035,7 @@
         <v>7</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K88">
         <v>0.0014516160291009</v>
@@ -8064,7 +8064,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -8114,7 +8114,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -8164,7 +8164,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -8214,7 +8214,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8314,7 +8314,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8364,7 +8364,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8385,7 +8385,7 @@
         <v>37</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K95">
         <v>0.001416031005222082</v>
@@ -8414,7 +8414,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8435,7 +8435,7 @@
         <v>13</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K96">
         <v>0.001343893064749605</v>
@@ -8464,7 +8464,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -8514,7 +8514,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -8564,7 +8564,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8614,7 +8614,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C100">
         <v>2</v>
@@ -8664,7 +8664,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C101">
         <v>2</v>
@@ -8714,7 +8714,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C102">
         <v>2</v>
@@ -8764,7 +8764,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -8814,7 +8814,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -8864,7 +8864,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C105">
         <v>2</v>
@@ -8914,7 +8914,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -8964,7 +8964,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.002612380300640046</v>
+        <v>0.002643103094958227</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -9014,7 +9014,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.002547976556981177</v>
+        <v>0.002577941933641114</v>
       </c>
       <c r="C108">
         <v>30</v>
@@ -9064,7 +9064,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.002054653091740207</v>
+        <v>0.002078816757465783</v>
       </c>
       <c r="C109">
         <v>16</v>
@@ -9114,7 +9114,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001857246118608578</v>
+        <v>0.001879088187501177</v>
       </c>
       <c r="C110">
         <v>10</v>
@@ -9164,7 +9164,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9185,7 +9185,7 @@
         <v>15</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K111">
         <v>0.001305628233821715</v>
@@ -9214,7 +9214,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9235,7 +9235,7 @@
         <v>13</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K112">
         <v>0.001272855711830214</v>
@@ -9264,7 +9264,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9314,7 +9314,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9364,7 +9364,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9414,7 +9414,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9464,7 +9464,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9514,7 +9514,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9564,7 +9564,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9614,7 +9614,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9664,7 +9664,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9714,7 +9714,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9764,7 +9764,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9814,7 +9814,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9864,7 +9864,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9914,7 +9914,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -10014,7 +10014,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -10035,7 +10035,7 @@
         <v>15</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K128">
         <v>0.001224859963842485</v>
@@ -10064,7 +10064,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10085,7 +10085,7 @@
         <v>15</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K129">
         <v>0.001206590238730813</v>
@@ -10114,7 +10114,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -10135,7 +10135,7 @@
         <v>36</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K130">
         <v>0.001143741041488213</v>
@@ -10164,7 +10164,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10214,7 +10214,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10264,7 +10264,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10314,7 +10314,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10364,7 +10364,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10414,7 +10414,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10464,7 +10464,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10514,7 +10514,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10564,7 +10564,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10614,7 +10614,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10664,7 +10664,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10714,7 +10714,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10764,7 +10764,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10814,7 +10814,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10864,7 +10864,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10914,7 +10914,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10964,7 +10964,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -11014,7 +11014,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -11064,7 +11064,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11114,7 +11114,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11164,7 +11164,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11214,7 +11214,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11264,7 +11264,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11314,7 +11314,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11364,7 +11364,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11414,7 +11414,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11464,7 +11464,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11514,7 +11514,7 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -11564,7 +11564,7 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -11614,7 +11614,7 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -11664,7 +11664,7 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -11714,7 +11714,7 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -11764,7 +11764,7 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -11814,7 +11814,7 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -11864,7 +11864,7 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -11914,7 +11914,7 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -11964,7 +11964,7 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -12014,7 +12014,7 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -12064,7 +12064,7 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -12114,7 +12114,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001847231825620728</v>
+        <v>0.001868956121820113</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -12135,7 +12135,7 @@
         <v>54</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K170">
         <v>0.001112273936249835</v>
@@ -12164,7 +12164,7 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001827393844679864</v>
+        <v>0.001848884837095728</v>
       </c>
       <c r="C171">
         <v>6</v>
@@ -12185,7 +12185,7 @@
         <v>685</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K171">
         <v>0.001084836809265198</v>
@@ -12214,28 +12214,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001805722943489151</v>
+        <v>0.001680707569187802</v>
       </c>
       <c r="C172">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D172">
-        <v>209</v>
+        <v>172</v>
       </c>
       <c r="E172">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F172">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K172">
         <v>0.001080508005867348</v>
@@ -12264,28 +12264,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001661171428862567</v>
+        <v>0.001661810944721051</v>
       </c>
       <c r="C173">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D173">
-        <v>172</v>
+        <v>218</v>
       </c>
       <c r="E173">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F173">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K173">
         <v>0.001016044406128001</v>
@@ -12314,28 +12314,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001642494454211182</v>
+        <v>0.001651696459478291</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D174">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="E174">
-        <v>0.99</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F174">
-        <v>0.01000000000000001</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K174">
         <v>0.001012138691810275</v>
@@ -12364,25 +12364,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001635063228485012</v>
+        <v>0.001540237928651673</v>
       </c>
       <c r="C175">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E175">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F175">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>72</v>
+        <v>268</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>467</v>
@@ -12414,25 +12414,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.001632497537310853</v>
+        <v>0.001524349949829998</v>
       </c>
       <c r="C176">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D176">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="E176">
-        <v>0.07000000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="F176">
-        <v>0.9299999999999999</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>41</v>
+        <v>726</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>468</v>
@@ -12464,25 +12464,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.001522334573624285</v>
+        <v>0.001456315492899274</v>
       </c>
       <c r="C177">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D177">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E177">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F177">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>268</v>
+        <v>435</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>469</v>
@@ -12514,25 +12514,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.001506631272845022</v>
+        <v>0.001418502692140712</v>
       </c>
       <c r="C178">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D178">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E178">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F178">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>726</v>
+        <v>1029</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>470</v>
@@ -12564,25 +12564,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.001439387632069302</v>
+        <v>0.001379761976952467</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D179">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E179">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F179">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>435</v>
+        <v>36</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>471</v>
@@ -12614,25 +12614,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.00140201435820718</v>
+        <v>0.001321995310555606</v>
       </c>
       <c r="C180">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E180">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F180">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>1029</v>
+        <v>353</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>472</v>
@@ -12664,25 +12664,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.001363723955769405</v>
+        <v>0.00131025370400764</v>
       </c>
       <c r="C181">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D181">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E181">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F181">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>36</v>
+        <v>309</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>473</v>
@@ -12714,25 +12714,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.001306628755201305</v>
+        <v>0.001297478336829886</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D182">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E182">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F182">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>353</v>
+        <v>14</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>474</v>
@@ -12764,25 +12764,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.001295023630262258</v>
+        <v>0.001295919056167782</v>
       </c>
       <c r="C183">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D183">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E183">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F183">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>309</v>
+        <v>534</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>475</v>
@@ -12814,25 +12814,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.001282396760878211</v>
+        <v>0.001186736203897455</v>
       </c>
       <c r="C184">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D184">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="E184">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F184">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>476</v>
@@ -12864,25 +12864,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.001280855604919286</v>
+        <v>0.001185091281889979</v>
       </c>
       <c r="C185">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="E185">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F185">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>534</v>
+        <v>17</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>477</v>
@@ -12914,25 +12914,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.001172941867849109</v>
+        <v>0.001083413370546955</v>
       </c>
       <c r="C186">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D186">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E186">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F186">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>127</v>
+        <v>265</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>478</v>
@@ -12964,25 +12964,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.001171316066019199</v>
+        <v>0.001074590322445589</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D187">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E187">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F187">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>479</v>
@@ -13014,25 +13014,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.001070820034249035</v>
+        <v>0.00107405865716325</v>
       </c>
       <c r="C188">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E188">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F188">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>265</v>
+        <v>16</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>480</v>
@@ -13064,25 +13064,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.001062099543135551</v>
+        <v>0.001073397252017078</v>
       </c>
       <c r="C189">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D189">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E189">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F189">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>481</v>
@@ -13114,19 +13114,19 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.001061574057802509</v>
+        <v>0.001029770560576107</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="E190">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F190">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
@@ -13164,25 +13164,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.00106092034067059</v>
+        <v>0.001020439511685084</v>
       </c>
       <c r="C191">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D191">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E191">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F191">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>235</v>
+        <v>28</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>483</v>
@@ -13214,25 +13214,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.00101780075539225</v>
+        <v>0.0009922986322844849</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D192">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E192">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F192">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>484</v>
@@ -13264,25 +13264,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.001008578168368038</v>
+        <v>0.0009577927235013546</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E193">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F193">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>485</v>
@@ -13314,25 +13314,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0009807643917775443</v>
+        <v>0.0009334644612746756</v>
       </c>
       <c r="C194">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D194">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="E194">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F194">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>486</v>
@@ -13364,13 +13364,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0009466595713743289</v>
+        <v>0.0009164148115680903</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="D195">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E195">
         <v>0.96</v>
@@ -13382,7 +13382,7 @@
         <v>1</v>
       </c>
       <c r="H195">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>487</v>
@@ -13414,25 +13414,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0009226140950132241</v>
+        <v>0.0009057313803624357</v>
       </c>
       <c r="C196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D196">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E196">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F196">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>488</v>
@@ -13464,25 +13464,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.000905762626331863</v>
+        <v>0.0008552181565200284</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D197">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E197">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F197">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>489</v>
@@ -13514,13 +13514,13 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0008952033767595962</v>
+        <v>0.0008285036104002649</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="E198">
         <v>0.98</v>
@@ -13532,7 +13532,7 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>99</v>
+        <v>221</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>490</v>
@@ -13564,25 +13564,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0008452773064752241</v>
+        <v>0.0008189835272998606</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D199">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E199">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F199">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>491</v>
@@ -13614,25 +13614,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0008188732838107531</v>
+        <v>0.0007729620278140318</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E200">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F200">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>492</v>
@@ -13664,25 +13664,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0008094638598653184</v>
+        <v>0.0007606545830679325</v>
       </c>
       <c r="C201">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E201">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F201">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>493</v>
@@ -13714,25 +13714,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0007639773032145286</v>
+        <v>0.0007479976650576722</v>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
       <c r="D202">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E202">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F202">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>494</v>
@@ -13764,25 +13764,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0007518129172443953</v>
+        <v>0.0007373258126156431</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E203">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F203">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>495</v>
@@ -13814,25 +13814,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0007393031202032235</v>
+        <v>0.0007281577464496372</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E204">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F204">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>496</v>
@@ -13864,25 +13864,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0007287553148058202</v>
+        <v>0.0007278359603245313</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D205">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="E205">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="F205">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>12</v>
+        <v>495</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>497</v>
@@ -13914,25 +13914,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0007196938160346508</v>
+        <v>0.0007215596985032116</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
         <v>33</v>
       </c>
       <c r="E206">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F206">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>498</v>
@@ -13964,25 +13964,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0007193757702740258</v>
+        <v>0.0007186804727542743</v>
       </c>
       <c r="C207">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E207">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="F207">
-        <v>0.12</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>495</v>
+        <v>26</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>499</v>
@@ -14014,25 +14014,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0007131724622097469</v>
+        <v>0.0006987187423458295</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E208">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F208">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>500</v>
@@ -14064,13 +14064,13 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0007103267038880353</v>
+        <v>0.0006881896895031654</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E209">
         <v>0.97</v>
@@ -14082,7 +14082,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>26</v>
+        <v>331</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>501</v>
@@ -14114,13 +14114,13 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0006905970038301067</v>
+        <v>0.0006881896895031654</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E210">
         <v>0.97</v>
@@ -14132,7 +14132,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>502</v>
@@ -14164,25 +14164,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0006801903381638896</v>
+        <v>0.0006772617297589397</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E211">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F211">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>331</v>
+        <v>69</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>503</v>
@@ -14214,25 +14214,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0006801903381638896</v>
+        <v>0.0006417855049484432</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E212">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F212">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>504</v>
@@ -14264,25 +14264,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0006693894023939385</v>
+        <v>0.0006315821610338676</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F213">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>505</v>
@@ -14314,13 +14314,13 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0006343255446833548</v>
+        <v>0.0006289459986264948</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E214">
         <v>0.96</v>
@@ -14332,7 +14332,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>506</v>
@@ -14364,25 +14364,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0006242408019830273</v>
+        <v>0.000615530756198211</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E215">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F215">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>507</v>
@@ -14414,25 +14414,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0006216352816930905</v>
+        <v>0.0006014909377221804</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E216">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F216">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>508</v>
@@ -14464,25 +14464,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0006083759748144412</v>
+        <v>0.0005791088058338095</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E217">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F217">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>509</v>
@@ -14514,25 +14514,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.000594499351809721</v>
+        <v>0.0005741996647484175</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D218">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E218">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F218">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>510</v>
@@ -14564,25 +14564,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0005723773844362039</v>
+        <v>0.0005713096732138645</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D219">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E219">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F219">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>511</v>
@@ -14614,25 +14614,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0005675253060254134</v>
+        <v>0.0005406179856351605</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E220">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="F220">
-        <v>0.11</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>512</v>
@@ -14664,25 +14664,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0005646689070569872</v>
+        <v>0.000537864013827961</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E221">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F221">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>513</v>
@@ -14714,25 +14714,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0005343339722688031</v>
+        <v>0.000537864013827961</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E222">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F222">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>514</v>
@@ -14764,25 +14764,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0005316120119671526</v>
+        <v>0.0005146577431368991</v>
       </c>
       <c r="C223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D223">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E223">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F223">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>515</v>
@@ -14814,13 +14814,13 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0005316120119671526</v>
+        <v>0.0005004456112552948</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E224">
         <v>0.9399999999999999</v>
@@ -14832,7 +14832,7 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>516</v>
@@ -14864,25 +14864,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0005086754853820597</v>
+        <v>0.0005004456112552948</v>
       </c>
       <c r="C225">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E225">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F225">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>517</v>
@@ -14914,7 +14914,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0004946285519013253</v>
+        <v>0.0005004456112552948</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14932,10 +14932,10 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K226">
         <v>0.0009833281561504544</v>
@@ -14964,7 +14964,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0004946285519013253</v>
+        <v>0.0005004456112552948</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14982,10 +14982,10 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K227">
         <v>0.0009833281561504544</v>
@@ -15014,28 +15014,28 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0004946285519013253</v>
+        <v>0.0004799604567720176</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E228">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F228">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J228" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K228">
         <v>0.0009702906153163322</v>
@@ -15064,28 +15064,28 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0004946285519013253</v>
+        <v>0.0004799604567720176</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E229">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F229">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K229">
         <v>0.0009502758992740183</v>
@@ -15114,7 +15114,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0004743815119240492</v>
+        <v>0.0004799604567720176</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -15132,10 +15132,10 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="J230" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K230">
         <v>0.0008844105625145491</v>
@@ -15164,7 +15164,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0004743815119240492</v>
+        <v>0.0004799604567720176</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -15182,10 +15182,10 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K231">
         <v>0.0008819312738253491</v>
@@ -15214,25 +15214,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0004743815119240492</v>
+        <v>0.0004770425570648597</v>
       </c>
       <c r="C232">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D232">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E232">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="F232">
-        <v>0.06999999999999995</v>
+        <v>0.22</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>94</v>
+        <v>908</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>518</v>
@@ -15264,25 +15264,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0004743815119240492</v>
+        <v>0.0004764977826670807</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E233">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F233">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>519</v>
@@ -15314,25 +15314,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0004714975291809004</v>
+        <v>0.0004764977826670807</v>
       </c>
       <c r="C234">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E234">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="F234">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>908</v>
+        <v>38</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>520</v>
@@ -15364,25 +15364,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0004709590871096223</v>
+        <v>0.0004580981750885628</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E235">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F235">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>521</v>
@@ -15414,25 +15414,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0004709590871096223</v>
+        <v>0.0004580981750885628</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E236">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="F236">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>522</v>
@@ -15464,25 +15464,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0004527733521417673</v>
+        <v>0.0004346799918079301</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E237">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F237">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>523</v>
@@ -15514,25 +15514,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0004527733521417673</v>
+        <v>0.0004286486936130086</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E238">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F238">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>524</v>
@@ -15564,13 +15564,13 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0004296273761880485</v>
+        <v>0.0004094917636499303</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E239">
         <v>0.92</v>
@@ -15582,7 +15582,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>525</v>
@@ -15614,25 +15614,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0004236661843519246</v>
+        <v>0.0004094917636499303</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E240">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F240">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>526</v>
@@ -15664,7 +15664,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0004047319299326592</v>
+        <v>0.0004094917636499303</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15682,7 +15682,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>527</v>
@@ -15714,7 +15714,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0004047319299326592</v>
+        <v>0.0004094917636499303</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15732,7 +15732,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>6</v>
@@ -15764,25 +15764,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0004047319299326592</v>
+        <v>0.0003800628907623962</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D243">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E243">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="F243">
-        <v>0.07999999999999996</v>
+        <v>0.17</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>528</v>
@@ -15814,25 +15814,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0004047319299326592</v>
+        <v>0.0003758596366194022</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E244">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="F244">
-        <v>0.07999999999999996</v>
+        <v>0.13</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>55</v>
+        <v>449</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>529</v>
@@ -15864,25 +15864,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0003756451311815688</v>
+        <v>0.0003527129046134772</v>
       </c>
       <c r="C245">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E245">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F245">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>530</v>
@@ -15914,25 +15914,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0003714907346532281</v>
+        <v>0.0003527129046134772</v>
       </c>
       <c r="C246">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D246">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E246">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F246">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>449</v>
+        <v>48</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>531</v>
@@ -15964,7 +15964,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0003486130546899239</v>
+        <v>0.0003527129046134772</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15982,7 +15982,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>532</v>
@@ -16014,25 +16014,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0003486130546899239</v>
+        <v>0.0003204183082819985</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E248">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F248">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>533</v>
@@ -16064,25 +16064,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0003486130546899239</v>
+        <v>0.0003204183082819985</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E249">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F249">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>534</v>
@@ -16114,25 +16114,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0003166938429745706</v>
+        <v>0.0003172113401694507</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D250">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E250">
-        <v>0.89</v>
+        <v>0.85</v>
       </c>
       <c r="F250">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>535</v>
@@ -16164,25 +16164,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0003166938429745706</v>
+        <v>0.0002853613392347312</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E251">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F251">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>536</v>
@@ -16214,25 +16214,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0003135241518876125</v>
+        <v>0.0002853613392347312</v>
       </c>
       <c r="C252">
         <v>2</v>
       </c>
       <c r="D252">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E252">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="F252">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>537</v>
@@ -16264,25 +16264,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0002820443676991174</v>
+        <v>0.0002849110917146105</v>
       </c>
       <c r="C253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E253">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F253">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>538</v>
@@ -16314,25 +16314,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0002820443676991174</v>
+        <v>0.0002849110917146105</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E254">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F254">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>22</v>
+        <v>130</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>539</v>
@@ -16364,7 +16364,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0002815993537478193</v>
+        <v>0.0002849110917146105</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16382,7 +16382,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>540</v>
@@ -16414,7 +16414,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0002815993537478193</v>
+        <v>0.0002849110917146105</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16432,7 +16432,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>541</v>
@@ -16464,25 +16464,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0002815993537478193</v>
+        <v>0.0002516466167287577</v>
       </c>
       <c r="C257">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D257">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E257">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F257">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>542</v>
@@ -16514,25 +16514,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0002815993537478193</v>
+        <v>0.0002516466167287577</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D258">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E258">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F258">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>543</v>
@@ -16564,25 +16564,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.000248721537014171</v>
+        <v>0.0002456006766407715</v>
       </c>
       <c r="C259">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D259">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E259">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F259">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>46</v>
+        <v>286</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>544</v>
@@ -16614,25 +16614,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.000248721537014171</v>
+        <v>0.0002456006766407715</v>
       </c>
       <c r="C260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D260">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E260">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F260">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>545</v>
@@ -16664,7 +16664,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0002427458734788238</v>
+        <v>0.0002456006766407715</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16682,7 +16682,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>546</v>
@@ -16714,7 +16714,7 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0002427458734788238</v>
+        <v>0.0002456006766407715</v>
       </c>
       <c r="C262">
         <v>1</v>
@@ -16732,7 +16732,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>547</v>
@@ -16764,7 +16764,7 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0002427458734788238</v>
+        <v>0.0002456006766407715</v>
       </c>
       <c r="C263">
         <v>1</v>
@@ -16782,7 +16782,7 @@
         <v>1</v>
       </c>
       <c r="H263">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>548</v>
@@ -16814,7 +16814,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0002427458734788238</v>
+        <v>0.0002456006766407715</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16832,7 +16832,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>549</v>
@@ -16864,7 +16864,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0002427458734788238</v>
+        <v>0.0002456006766407715</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16882,7 +16882,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>550</v>
@@ -16914,7 +16914,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0002427458734788238</v>
+        <v>0.0002456006766407715</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16932,7 +16932,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>551</v>
@@ -16964,25 +16964,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.0002427458734788238</v>
+        <v>0.0002023408052592342</v>
       </c>
       <c r="C267">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D267">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E267">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="F267">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>552</v>
@@ -17014,25 +17014,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0002427458734788238</v>
+        <v>0.0002023408052592342</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D268">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E268">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="F268">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>553</v>
@@ -17064,25 +17064,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.0001999888444318217</v>
+        <v>0.0002017809380613532</v>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E269">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F269">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>554</v>
@@ -17114,25 +17114,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0001999888444318217</v>
+        <v>0.0002017809380613532</v>
       </c>
       <c r="C270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E270">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="F270">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>158</v>
+        <v>47</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>555</v>
@@ -17164,7 +17164,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.0001994354849955179</v>
+        <v>0.0002017809380613532</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -17182,7 +17182,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>556</v>
@@ -17214,7 +17214,7 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.0001994354849955179</v>
+        <v>0.0002017809380613532</v>
       </c>
       <c r="C272">
         <v>1</v>
@@ -17232,7 +17232,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>557</v>
@@ -17264,7 +17264,7 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0001994354849955179</v>
+        <v>0.0002017809380613532</v>
       </c>
       <c r="C273">
         <v>1</v>
@@ -17282,7 +17282,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>558</v>
@@ -17314,25 +17314,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.0001994354849955179</v>
+        <v>0.0001782268485536816</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D274">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E274">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F274">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>559</v>
@@ -17364,25 +17364,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.0001994354849955179</v>
+        <v>0.0001527015011220684</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E275">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F275">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>560</v>
@@ -17414,25 +17414,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.0001761551825560377</v>
+        <v>0.0001527015011220684</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E276">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F276">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>561</v>
@@ -17464,7 +17464,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.0001509265356203444</v>
+        <v>0.0001527015011220684</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17482,7 +17482,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>562</v>
@@ -17514,7 +17514,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.0001509265356203444</v>
+        <v>0.0001527015011220684</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17532,7 +17532,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>563</v>
@@ -17564,7 +17564,7 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.0001509265356203444</v>
+        <v>0.0001527015011220684</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -17582,7 +17582,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>564</v>
@@ -17614,7 +17614,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.0001509265356203444</v>
+        <v>0.0001527015011220684</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17632,7 +17632,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>565</v>
@@ -17664,7 +17664,7 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.0001509265356203444</v>
+        <v>0.0001527015011220684</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -17682,7 +17682,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>566</v>
@@ -17714,25 +17714,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.0001509265356203444</v>
+        <v>0.0001385743726181779</v>
       </c>
       <c r="C282">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E282">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F282">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>567</v>
@@ -17764,25 +17764,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.0001509265356203444</v>
+        <v>0.0001385743726181779</v>
       </c>
       <c r="C283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D283">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E283">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F283">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>568</v>
@@ -17814,13 +17814,13 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.0001369636174585172</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D284">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E284">
         <v>0.75</v>
@@ -17832,7 +17832,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>569</v>
@@ -17864,13 +17864,13 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.0001369636174585172</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E285">
         <v>0.75</v>
@@ -17882,7 +17882,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>570</v>
@@ -17914,7 +17914,7 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>9.684790268075813E-05</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -17932,7 +17932,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>571</v>
@@ -17964,7 +17964,7 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>9.684790268075813E-05</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -17982,7 +17982,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>572</v>
@@ -18014,7 +18014,7 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>9.684790268075813E-05</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -18032,7 +18032,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>573</v>
@@ -18064,7 +18064,7 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>9.684790268075813E-05</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -18082,7 +18082,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>574</v>
@@ -18114,7 +18114,7 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>9.684790268075813E-05</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -18132,7 +18132,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>575</v>
@@ -18164,7 +18164,7 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>9.684790268075813E-05</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C291">
         <v>1</v>
@@ -18182,7 +18182,7 @@
         <v>1</v>
       </c>
       <c r="H291">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>576</v>
@@ -18214,7 +18214,7 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>9.684790268075813E-05</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C292">
         <v>1</v>
@@ -18232,7 +18232,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>577</v>
@@ -18264,7 +18264,7 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>9.684790268075813E-05</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C293">
         <v>1</v>
@@ -18282,7 +18282,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>578</v>
@@ -18314,7 +18314,7 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>9.684790268075813E-05</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C294">
         <v>1</v>
@@ -18332,7 +18332,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>579</v>
@@ -18364,7 +18364,7 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>9.684790268075813E-05</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C295">
         <v>1</v>
@@ -18382,7 +18382,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>580</v>
@@ -18414,7 +18414,7 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>9.684790268075813E-05</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C296">
         <v>1</v>
@@ -18432,7 +18432,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>581</v>
@@ -18464,7 +18464,7 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>9.684790268075813E-05</v>
+        <v>9.798687857698545E-05</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -18482,7 +18482,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>582</v>
@@ -18514,25 +18514,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>9.684790268075813E-05</v>
+        <v>9.748219997529713E-05</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D298">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E298">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F298">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>583</v>
@@ -18564,25 +18564,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>9.684790268075813E-05</v>
+        <v>6.908001627655756E-05</v>
       </c>
       <c r="C299">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D299">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E299">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F299">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>584</v>
@@ -18614,25 +18614,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>9.634909034168591E-05</v>
+        <v>5.640359710024122E-05</v>
       </c>
       <c r="C300">
         <v>2</v>
       </c>
       <c r="D300">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E300">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F300">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>585</v>
@@ -18664,25 +18664,25 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>6.827704679133029E-05</v>
+        <v>5.640359710024122E-05</v>
       </c>
       <c r="C301">
+        <v>2</v>
+      </c>
+      <c r="D301">
         <v>3</v>
       </c>
-      <c r="D301">
-        <v>9</v>
-      </c>
       <c r="E301">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F301">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>586</v>
@@ -18714,25 +18714,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>5.574797526096384E-05</v>
+        <v>3.988336599289383E-05</v>
       </c>
       <c r="C302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D302">
         <v>3</v>
       </c>
       <c r="E302">
+        <v>0.67</v>
+      </c>
+      <c r="F302">
         <v>0.33</v>
       </c>
-      <c r="F302">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>587</v>
@@ -18764,28 +18764,28 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>5.574797526096384E-05</v>
+        <v>3.988336599289383E-05</v>
       </c>
       <c r="C303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D303">
         <v>3</v>
       </c>
       <c r="E303">
+        <v>0.67</v>
+      </c>
+      <c r="F303">
         <v>0.33</v>
       </c>
-      <c r="F303">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K303">
         <v>0.0008731492416999545</v>
@@ -18814,7 +18814,7 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>3.941977134444681E-05</v>
+        <v>3.988336599289383E-05</v>
       </c>
       <c r="C304">
         <v>1</v>
@@ -18832,10 +18832,10 @@
         <v>1</v>
       </c>
       <c r="H304">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K304">
         <v>0.0008489983032743991</v>
@@ -18864,7 +18864,7 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>3.941977134444681E-05</v>
+        <v>3.988336599289383E-05</v>
       </c>
       <c r="C305">
         <v>1</v>
@@ -18882,10 +18882,10 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K305">
         <v>0.0008468826670175861</v>
@@ -18914,7 +18914,7 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>3.941977134444681E-05</v>
+        <v>3.988336599289383E-05</v>
       </c>
       <c r="C306">
         <v>1</v>
@@ -18932,10 +18932,10 @@
         <v>1</v>
       </c>
       <c r="H306">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K306">
         <v>0.0008204526302311631</v>
@@ -18964,7 +18964,7 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>3.941977134444681E-05</v>
+        <v>3.988336599289383E-05</v>
       </c>
       <c r="C307">
         <v>1</v>
@@ -18982,10 +18982,10 @@
         <v>1</v>
       </c>
       <c r="H307">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K307">
         <v>0.0008144952835787215</v>
@@ -19014,7 +19014,7 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>3.941977134444681E-05</v>
+        <v>3.988336599289383E-05</v>
       </c>
       <c r="C308">
         <v>1</v>
@@ -19032,10 +19032,10 @@
         <v>1</v>
       </c>
       <c r="H308">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K308">
         <v>0.000779601015108564</v>
@@ -19064,7 +19064,7 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>3.941977134444681E-05</v>
+        <v>3.988336599289383E-05</v>
       </c>
       <c r="C309">
         <v>1</v>
@@ -19082,10 +19082,10 @@
         <v>1</v>
       </c>
       <c r="H309">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K309">
         <v>0.0007670954643121989</v>
@@ -19114,28 +19114,28 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>3.941977134444681E-05</v>
+        <v>0</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E310">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F310">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K310">
         <v>0.0007443034519817337</v>
@@ -19164,28 +19164,28 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>3.941977134444681E-05</v>
+        <v>0</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E311">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F311">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>233</v>
+        <v>57</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K311">
         <v>0.0007334707621676729</v>
@@ -19232,7 +19232,7 @@
         <v>1</v>
       </c>
       <c r="H312">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>588</v>
@@ -19282,7 +19282,7 @@
         <v>1</v>
       </c>
       <c r="H313">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>589</v>
@@ -19332,7 +19332,7 @@
         <v>1</v>
       </c>
       <c r="H314">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>590</v>
@@ -19382,7 +19382,7 @@
         <v>1</v>
       </c>
       <c r="H315">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>591</v>
@@ -19432,7 +19432,7 @@
         <v>1</v>
       </c>
       <c r="H316">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>592</v>
@@ -19482,7 +19482,7 @@
         <v>1</v>
       </c>
       <c r="H317">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>593</v>
@@ -19532,7 +19532,7 @@
         <v>1</v>
       </c>
       <c r="H318">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>594</v>
@@ -19582,7 +19582,7 @@
         <v>1</v>
       </c>
       <c r="H319">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>595</v>
@@ -19632,7 +19632,7 @@
         <v>1</v>
       </c>
       <c r="H320">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J320" s="1" t="s">
         <v>596</v>
@@ -19682,7 +19682,7 @@
         <v>1</v>
       </c>
       <c r="H321">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>597</v>
@@ -19710,30 +19710,6 @@
       </c>
     </row>
     <row r="322" spans="1:17">
-      <c r="A322" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B322">
-        <v>0</v>
-      </c>
-      <c r="C322">
-        <v>1</v>
-      </c>
-      <c r="D322">
-        <v>2</v>
-      </c>
-      <c r="E322">
-        <v>0.5</v>
-      </c>
-      <c r="F322">
-        <v>0.5</v>
-      </c>
-      <c r="G322" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322">
-        <v>21</v>
-      </c>
       <c r="J322" s="1" t="s">
         <v>598</v>
       </c>
@@ -19760,30 +19736,6 @@
       </c>
     </row>
     <row r="323" spans="1:17">
-      <c r="A323" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B323">
-        <v>0</v>
-      </c>
-      <c r="C323">
-        <v>1</v>
-      </c>
-      <c r="D323">
-        <v>2</v>
-      </c>
-      <c r="E323">
-        <v>0.5</v>
-      </c>
-      <c r="F323">
-        <v>0.5</v>
-      </c>
-      <c r="G323" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323">
-        <v>27</v>
-      </c>
       <c r="J323" s="1" t="s">
         <v>599</v>
       </c>
@@ -23295,7 +23247,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K458">
         <v>0.0006724495004022213</v>
@@ -23321,7 +23273,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K459">
         <v>0.0006029706301137537</v>
@@ -23347,7 +23299,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K460">
         <v>0.000598836476717484</v>
@@ -23373,7 +23325,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K461">
         <v>0.000598836476717484</v>
@@ -23399,7 +23351,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K462">
         <v>0.0005322253049003331</v>
@@ -23425,7 +23377,7 @@
     </row>
     <row r="463" spans="10:17">
       <c r="J463" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K463">
         <v>0.0005233760098295243</v>
@@ -23451,7 +23403,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K464">
         <v>0.0005233760098295243</v>
@@ -23477,7 +23429,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K465">
         <v>0.0005233760098295243</v>
@@ -23503,7 +23455,7 @@
     </row>
     <row r="466" spans="10:17">
       <c r="J466" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K466">
         <v>0.0005233760098295243</v>
@@ -23529,7 +23481,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K467">
         <v>0.000518642149730827</v>
@@ -33305,7 +33257,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K843">
         <v>0.0004849319213839983</v>
@@ -33331,7 +33283,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K844">
         <v>0.0004849319213839983</v>
@@ -33357,7 +33309,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K845">
         <v>0.0004849319213839983</v>
@@ -33383,7 +33335,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K846">
         <v>0.0004849319213839983</v>
@@ -33409,7 +33361,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K847">
         <v>0.0004616382514091311</v>
@@ -33435,7 +33387,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K848">
         <v>0.0004475933329151605</v>
@@ -33461,7 +33413,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K849">
         <v>0.0004460068564802544</v>
@@ -33487,7 +33439,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K850">
         <v>0.0004460068564802544</v>
@@ -33513,7 +33465,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K851">
         <v>0.000406603928694576</v>
@@ -33539,7 +33491,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K852">
         <v>0.0003763401222141037</v>
@@ -33565,7 +33517,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K853">
         <v>0.0003751298679949774</v>
@@ -33591,7 +33543,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K854">
         <v>0.0003751298679949774</v>
@@ -33617,7 +33569,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K855">
         <v>0.0003667353810838364</v>
@@ -33643,7 +33595,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K856">
         <v>0.0003667353810838364</v>
@@ -33669,7 +33621,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K857">
         <v>0.0003667353810838364</v>
@@ -33695,7 +33647,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K858">
         <v>0.0003667353810838364</v>
@@ -33721,7 +33673,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K859">
         <v>0.0003169884465273567</v>
@@ -33747,7 +33699,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K860">
         <v>0.0002857287238050371</v>
@@ -33773,7 +33725,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K861">
         <v>0.0002857287238050371</v>
@@ -33799,7 +33751,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K862">
         <v>0.0002857287238050371</v>
@@ -33825,7 +33777,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K863">
         <v>0.0002587579281994503</v>
@@ -33851,7 +33803,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K864">
         <v>0.0002449320821530948</v>
@@ -33877,7 +33829,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K865">
         <v>0.0002447223384884922</v>
@@ -33903,7 +33855,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K866">
         <v>0.0002447223384884922</v>
@@ -33929,7 +33881,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K867">
         <v>0.0002236730034491519</v>
@@ -33955,7 +33907,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K868">
         <v>0.0002035493285904947</v>
@@ -33981,7 +33933,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K869">
         <v>0.0002035493285904947</v>
@@ -34007,7 +33959,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K870">
         <v>0.0002035493285904947</v>
@@ -34033,7 +33985,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K871">
         <v>0.0002035493285904947</v>
@@ -34059,7 +34011,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K872">
         <v>0.0002008821495187948</v>
@@ -34085,7 +34037,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K873">
         <v>0.0001723024425554349</v>
@@ -34111,7 +34063,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K874">
         <v>0.0001723024425554349</v>
@@ -34137,7 +34089,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K875">
         <v>0.0001624487902448108</v>
@@ -34163,7 +34115,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K876">
         <v>0.0001624487902448108</v>
@@ -34189,7 +34141,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K877">
         <v>0.0001624487902448108</v>
@@ -34215,7 +34167,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K878">
         <v>0.0001624487902448108</v>
@@ -34241,7 +34193,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K879">
         <v>0.0001624487902448108</v>
@@ -34267,7 +34219,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K880">
         <v>0.0001624487902448108</v>
@@ -34293,7 +34245,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K881">
         <v>0.0001624487902448108</v>
@@ -34319,7 +34271,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K882">
         <v>0.0001624487902448108</v>
@@ -34345,7 +34297,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K883">
         <v>0.0001441480096333468</v>
@@ -34371,7 +34323,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K884">
         <v>0.0001441480096333468</v>
@@ -34423,7 +34375,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K886">
         <v>0.0001237000454036975</v>
@@ -34449,7 +34401,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K887">
         <v>0.0001218362255459536</v>
@@ -34475,7 +34427,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K888">
         <v>0.0001218362255459536</v>
@@ -34501,7 +34453,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K889">
         <v>0.0001218362255459536</v>
@@ -34527,7 +34479,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K890">
         <v>0.0001218362255459536</v>
@@ -34553,7 +34505,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K891">
         <v>0.0001218362255459536</v>
@@ -34579,7 +34531,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K892">
         <v>9.975487850372477E-05</v>
@@ -34605,7 +34557,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K893">
         <v>9.975487850372477E-05</v>
@@ -34631,7 +34583,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K894">
         <v>9.003646747549159E-05</v>
@@ -34657,7 +34609,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K895">
         <v>8.246783615045327E-05</v>
@@ -34683,7 +34635,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K896">
         <v>8.246783615045327E-05</v>
@@ -34709,7 +34661,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K897">
         <v>8.246783615045327E-05</v>
@@ -34735,7 +34687,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K898">
         <v>8.246783615045327E-05</v>
@@ -34761,7 +34713,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K899">
         <v>8.246783615045327E-05</v>
@@ -34787,7 +34739,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K900">
         <v>8.246783615045327E-05</v>
@@ -34813,7 +34765,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K901">
         <v>8.246783615045327E-05</v>
@@ -34839,7 +34791,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K902">
         <v>6.481191380420616E-05</v>
@@ -34865,7 +34817,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K903">
         <v>6.481191380420616E-05</v>
@@ -34891,7 +34843,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K904">
         <v>4.582894375263219E-05</v>
@@ -34917,7 +34869,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K905">
         <v>4.582894375263219E-05</v>
@@ -34943,7 +34895,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K906">
         <v>4.582894375263219E-05</v>
@@ -34969,7 +34921,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K907">
         <v>4.582894375263219E-05</v>
@@ -34995,7 +34947,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K908">
         <v>4.582894375263219E-05</v>
@@ -35021,7 +34973,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K909">
         <v>4.582894375263219E-05</v>
@@ -35047,7 +34999,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K910">
         <v>4.582894375263219E-05</v>
@@ -35073,7 +35025,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K911">
         <v>4.582894375263219E-05</v>
@@ -35099,7 +35051,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K912">
         <v>4.582894375263219E-05</v>
@@ -35125,7 +35077,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K913">
         <v>4.582894375263219E-05</v>
@@ -35151,7 +35103,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K914">
         <v>4.582894375263219E-05</v>
@@ -35177,7 +35129,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K915">
         <v>4.582894375263219E-05</v>
@@ -35203,7 +35155,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K916">
         <v>4.582894375263219E-05</v>
@@ -35229,7 +35181,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K917">
         <v>4.582894375263219E-05</v>
@@ -35255,7 +35207,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K918">
         <v>4.162043581221229E-05</v>
@@ -35281,7 +35233,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K919">
         <v>2.63802390329452E-05</v>
@@ -35307,7 +35259,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K920">
         <v>1.523063810695782E-05</v>
@@ -35333,7 +35285,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K921">
         <v>1.523063810695782E-05</v>
@@ -35359,7 +35311,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K922">
         <v>1.523063810695782E-05</v>
@@ -35385,7 +35337,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K923">
         <v>1.523063810695782E-05</v>
@@ -35411,7 +35363,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K924">
         <v>1.523063810695782E-05</v>
@@ -35437,7 +35389,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K925">
         <v>1.523063810695782E-05</v>
@@ -35463,7 +35415,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K926">
         <v>1.523063810695782E-05</v>
@@ -35489,7 +35441,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K927">
         <v>1.523063810695782E-05</v>
@@ -35515,7 +35467,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K928">
         <v>1.076968748722795E-05</v>
@@ -35541,7 +35493,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K929">
         <v>1.076968748722795E-05</v>
@@ -35567,7 +35519,7 @@
     </row>
     <row r="930" spans="10:17">
       <c r="J930" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K930">
         <v>0</v>
@@ -35593,7 +35545,7 @@
     </row>
     <row r="931" spans="10:17">
       <c r="J931" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K931">
         <v>0</v>
@@ -35619,7 +35571,7 @@
     </row>
     <row r="932" spans="10:17">
       <c r="J932" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K932">
         <v>0</v>
@@ -35645,7 +35597,7 @@
     </row>
     <row r="933" spans="10:17">
       <c r="J933" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K933">
         <v>0</v>
@@ -35671,7 +35623,7 @@
     </row>
     <row r="934" spans="10:17">
       <c r="J934" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K934">
         <v>0</v>
@@ -35697,7 +35649,7 @@
     </row>
     <row r="935" spans="10:17">
       <c r="J935" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K935">
         <v>0</v>
@@ -35723,7 +35675,7 @@
     </row>
     <row r="936" spans="10:17">
       <c r="J936" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K936">
         <v>0</v>
@@ -35749,7 +35701,7 @@
     </row>
     <row r="937" spans="10:17">
       <c r="J937" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K937">
         <v>0</v>
@@ -35775,7 +35727,7 @@
     </row>
     <row r="938" spans="10:17">
       <c r="J938" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K938">
         <v>0</v>
@@ -35801,7 +35753,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K939">
         <v>0</v>
@@ -35827,7 +35779,7 @@
     </row>
     <row r="940" spans="10:17">
       <c r="J940" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K940">
         <v>0</v>
@@ -35853,7 +35805,7 @@
     </row>
     <row r="941" spans="10:17">
       <c r="J941" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K941">
         <v>0</v>
